--- a/www/MouseSampleTemplate.xlsx
+++ b/www/MouseSampleTemplate.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Samples" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Vocab" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t xml:space="preserve">Required</t>
   </si>
@@ -64,13 +65,7 @@
     <t xml:space="preserve">CBA/CAJ</t>
   </si>
   <si>
-    <t xml:space="preserve">107 dB, 8 hrs, 5 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10wks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15wks</t>
+    <t xml:space="preserve">110dB_2hrs_3days</t>
   </si>
   <si>
     <t xml:space="preserve">4% PFA</t>
@@ -80,16 +75,47 @@
   </si>
   <si>
     <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Controlled vocabulary. Do not edit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deafing Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107dB_8hrs_5days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110dB_8hrs_5days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113dB_8hrs_5days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 mg/kg_CDX_s.c._9.5 weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,6 +146,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -169,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,24 +211,48 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -275,216 +332,274 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="28.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>43832</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>1622</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="10"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="28" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B1003" type="date">
+      <formula1>43466</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D1003 F3:G1003" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C1003" type="list">
+      <formula1>Vocab!$C$4:$C$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E1003" type="list">
+      <formula1>Vocab!$E$4:$E$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L3:L1003" type="list">
+      <formula1>Vocab!$K$4:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L1:L2" type="none">
+      <formula1>Vocab!$K$4:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="1" sqref="A1:L1 K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="2" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="E3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="37" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="44" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="54" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="61" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="108" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-    </row>
-    <row r="109" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" password="d9d0" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/www/MouseSampleTemplate.xlsx
+++ b/www/MouseSampleTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t xml:space="preserve">Required</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">MOUSE STRAIN</t>
   </si>
   <si>
+    <t xml:space="preserve">MOUSE STRAIN GENOTYPE</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOB</t>
   </si>
   <si>
@@ -53,7 +56,7 @@
     <t xml:space="preserve">DECAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Formulation(FT or Vehicle)</t>
+    <t xml:space="preserve">Formulation(FT, Vehicle, or None)</t>
   </si>
   <si>
     <t xml:space="preserve">Animal #</t>
@@ -65,6 +68,9 @@
     <t xml:space="preserve">CBA/CAJ</t>
   </si>
   <si>
+    <t xml:space="preserve">wild-type </t>
+  </si>
+  <si>
     <t xml:space="preserve">110dB_2hrs_3days</t>
   </si>
   <si>
@@ -83,9 +89,27 @@
     <t xml:space="preserve">#Controlled vocabulary. Do not edit!</t>
   </si>
   <si>
+    <t xml:space="preserve">Strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genotype</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deafing Method</t>
   </si>
   <si>
+    <t xml:space="preserve">Fixation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestin,DTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestin +/-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Male</t>
   </si>
   <si>
@@ -95,16 +119,46 @@
     <t xml:space="preserve">WASHU</t>
   </si>
   <si>
+    <t xml:space="preserve">DTA+/+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Female</t>
   </si>
   <si>
+    <t xml:space="preserve">Creighton University ARF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2% PFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14% EDTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">110dB_8hrs_5days</t>
   </si>
   <si>
+    <t xml:space="preserve">Avastus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTA-/-</t>
+  </si>
+  <si>
     <t xml:space="preserve">113dB_8hrs_5days</t>
   </si>
   <si>
+    <t xml:space="preserve">8 mg/kg CDX s.c.; (8wks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestin +/-, DTA+/+</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 mg/kg_CDX_s.c._9.5 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestin +/-, DTA-/-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225mg/g Tamoxifen, IP injection</t>
   </si>
 </sst>
 </file>
@@ -202,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,20 +293,32 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -332,34 +398,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U109"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="28.99"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -381,15 +447,18 @@
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
     <row r="2" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -428,57 +497,63 @@
       <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="n">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="n">
         <v>43832</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="J3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="n">
         <v>1622</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="M3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="10"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -487,33 +562,53 @@
     <row r="54" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="108" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B1003" type="date">
+  <dataValidations count="11">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C1003" type="date">
       <formula1>43466</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D1003 F3:G1003" type="decimal">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E1003 G3:H1003" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C1003" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D1003" type="list">
       <formula1>Vocab!$C$4:$C$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E1003" type="list">
-      <formula1>Vocab!$E$4:$E$8</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L3:L1003" type="list">
-      <formula1>Vocab!$K$4:$K$5</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L1:L2" type="none">
-      <formula1>Vocab!$K$4:$K$5</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M3:M1003" type="list">
+      <formula1>Vocab!$K$4:$K$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M1:M2" type="none">
+      <formula1>Vocab!$K$4:$K$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1 J3:J1003" type="list">
+      <formula1>Vocab!$Q$4:$Q$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F3:F1003" type="list">
+      <formula1>Vocab!$E$4:$E$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I1003" type="list">
+      <formula1>Vocab!$O$4:$O$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A1003" type="list">
+      <formula1>Vocab!$A$4:$A$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B1003" type="list">
+      <formula1>Vocab!$B$4:$B$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B2" type="none">
+      <formula1>Vocab!$B$4:$B$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -532,74 +627,142 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="1" sqref="A1:L1 K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="12" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="12" t="s">
-        <v>27</v>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="d9d0" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/www/MouseSampleTemplate.xlsx
+++ b/www/MouseSampleTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t xml:space="preserve">Required</t>
   </si>
@@ -68,94 +68,85 @@
     <t xml:space="preserve">CBA/CAJ</t>
   </si>
   <si>
+    <t xml:space="preserve">110dB_2hrs_3days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4% PFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1M EDTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avastus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Controlled vocabulary. Do not edit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deafing Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestin,DTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">wild-type </t>
   </si>
   <si>
-    <t xml:space="preserve">110dB_2hrs_3days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4% PFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1M EDTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107dB_8hrs_5days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestin +/-, DTA+/+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creighton University ARF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2% PFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14% EDTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestin +/-, DTA-/-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110dB_8hrs_5days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113dB_8hrs_5days</t>
   </si>
   <si>
     <t xml:space="preserve">TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">#Controlled vocabulary. Do not edit!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deafing Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestin,DTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestin +/-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107dB_8hrs_5days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WASHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTA+/+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creighton University ARF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2% PFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14% EDTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110dB_8hrs_5days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avastus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTA-/-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113dB_8hrs_5days</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 mg/kg CDX s.c.; (8wks)</t>
   </si>
   <si>
-    <t xml:space="preserve">Prestin +/-, DTA+/+</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 mg/kg_CDX_s.c._9.5 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestin +/-, DTA-/-</t>
   </si>
   <si>
     <t xml:space="preserve">0.225mg/g Tamoxifen, IP injection</t>
@@ -401,20 +392,20 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="1" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="28.98"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,9 +496,7 @@
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="10" t="n">
         <v>43832</v>
       </c>
@@ -515,7 +504,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="n">
         <v>10</v>
@@ -524,19 +513,19 @@
         <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>1622</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P3" s="6"/>
       <c r="R3" s="6"/>
@@ -604,11 +593,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B1003" type="list">
-      <formula1>Vocab!$B$4:$B$10</formula1>
+      <formula1>Vocab!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B2" type="none">
-      <formula1>Vocab!$B$4:$B$10</formula1>
+      <formula1>Vocab!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -630,13 +619,13 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.71"/>
@@ -644,122 +633,110 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="12" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="K4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="O4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="O5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="14" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="13" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/www/MouseSampleTemplate.xlsx
+++ b/www/MouseSampleTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t xml:space="preserve">Required</t>
   </si>
@@ -392,7 +392,7 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,7 +555,7 @@
     </row>
     <row r="109" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C1003" type="date">
       <formula1>43466</formula1>
       <formula2>0</formula2>
@@ -580,10 +580,6 @@
       <formula1>Vocab!$Q$4:$Q$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F3:F1003" type="list">
-      <formula1>Vocab!$E$4:$E$10</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I1003" type="list">
       <formula1>Vocab!$O$4:$O$5</formula1>
       <formula2>0</formula2>
@@ -598,6 +594,14 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B2" type="none">
       <formula1>Vocab!$B$4:$B$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:F1003" type="list">
+      <formula1>Vocab!$E$4:$E$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F2" type="none">
+      <formula1>Vocab!$E$4:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -616,10 +620,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,6 +743,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/www/MouseSampleTemplate.xlsx
+++ b/www/MouseSampleTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" state="visible" r:id="rId2"/>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">8 mg/kg CDX s.c.; (8wks)</t>
+    <t xml:space="preserve">8 mg/kg_CDX_s.c._(8wks)</t>
   </si>
   <si>
     <t xml:space="preserve">8 mg/kg_CDX_s.c._9.5 weeks</t>
@@ -391,7 +391,7 @@
   </sheetPr>
   <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -620,10 +620,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -631,7 +631,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -747,6 +747,10 @@
       <c r="E11" s="0" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
